--- a/GPS Data West Campus.xlsx
+++ b/GPS Data West Campus.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidburgstahler/Documents/CAES/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15040" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="4340" windowWidth="19660" windowHeight="15280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Building</t>
   </si>
@@ -72,6 +67,33 @@
   </si>
   <si>
     <t>Baker Hall</t>
+  </si>
+  <si>
+    <t>bass</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>piano</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>synth</t>
   </si>
 </sst>
 </file>
@@ -145,7 +167,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,7 +260,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -423,13 +445,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
@@ -437,7 +459,7 @@
     <col min="14" max="14" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -462,10 +484,35 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -491,8 +538,35 @@
         <f>SQRT((F2-D2)^2+(G2-E2)^2)/2</f>
         <v>5.8391124251430324E-4</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -518,8 +592,35 @@
         <f t="shared" ref="H3:H9" si="0">SQRT((F3-D3)^2+(G3-E3)^2)/2</f>
         <v>4.1679674632553478E-4</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -545,8 +646,35 @@
         <f t="shared" si="0"/>
         <v>4.8226858256823258E-4</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -572,8 +700,35 @@
         <f t="shared" si="0"/>
         <v>7.0941075286026713E-4</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -599,8 +754,35 @@
         <f t="shared" si="0"/>
         <v>5.5065420696844935E-4</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -626,8 +808,35 @@
         <f t="shared" si="0"/>
         <v>2.369729499048727E-4</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -653,8 +862,35 @@
         <f t="shared" si="0"/>
         <v>2.3524556046973112E-4</v>
       </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -680,8 +916,40 @@
         <f t="shared" si="0"/>
         <v>3.8715501671237511E-4</v>
       </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>